--- a/DKS.xlsx
+++ b/DKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF75A319-6C21-4AC0-992F-547A21691CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B5010-0340-41BD-9129-9358C8543CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AEDF7C68-C22C-401E-A9BD-35ACF1F87F21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{AEDF7C68-C22C-401E-A9BD-35ACF1F87F21}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,12 +184,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -198,6 +196,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,15 +235,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,101 +581,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C17DCF2-F4E9-43E1-BAD1-D2BD4F389259}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>180.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f>56.285053+23.570633</f>
         <v>79.855685999999992</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f>+J2*J3</f>
         <v>14437.908028799999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>1689.94</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <f>0+1484.217</f>
         <v>1484.2170000000001</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f>+J4-J5+J6</f>
         <v>14232.185028799999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -671,86 +685,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A52A1C-0059-44B5-8437-E4B9478204D5}">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>722</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>723</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>131</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
@@ -781,123 +796,123 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
         <v>4952.2</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>4915.5</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>4899.3</v>
       </c>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
         <v>4218.1000000000004</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>4329.8</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>4425.3999999999996</v>
       </c>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
         <v>2979.1</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>3388.7</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>3829</v>
       </c>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
         <v>218.8</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>350.4</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>289.10000000000002</v>
       </c>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
@@ -921,593 +936,593 @@
         <v>13442.849</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <v>8083.64</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>8450.6640000000007</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>8617.1530000000002</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <f t="shared" ref="L13" si="1">+L6-L11+L12</f>
         <v>0</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="3">
         <f t="shared" ref="M13:N13" si="2">+M11-M12</f>
         <v>4284.558</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <f t="shared" si="2"/>
         <v>4533.7349999999988</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <f>+O11-O12</f>
         <v>4825.6959999999999</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
         <v>2799.8530000000001</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>3183.53</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>3294.2719999999999</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
         <v>21.686</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>67.84</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>57.491999999999997</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
         <f t="shared" ref="L16" si="3">+L13-L14+L15</f>
         <v>0</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="3">
         <f t="shared" ref="M16:N16" si="4">+M13-M14-M15</f>
         <v>1463.019</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <f t="shared" si="4"/>
         <v>1282.3649999999986</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <f>+O13-O14-O15</f>
         <v>1473.932</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-    </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
         <v>95.22</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="3">
         <v>58.023000000000003</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>52.987000000000002</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-    </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
         <v>15.949</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="3">
         <v>93.808999999999997</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>98.087999999999994</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-    </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
         <f t="shared" ref="L19:N19" si="5">+L16-L17+L18</f>
         <v>0</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="3">
         <f t="shared" si="5"/>
         <v>1383.748</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="3">
         <f t="shared" si="5"/>
         <v>1318.1509999999987</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <f>+O16-O17+O18</f>
         <v>1519.0329999999999</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-    </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>340.61</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="3">
         <v>271.63200000000001</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>353.72500000000002</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-    </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
         <f t="shared" ref="L21:N21" si="6">+L19-L20</f>
         <v>0</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="3">
         <f t="shared" si="6"/>
         <v>1043.1379999999999</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="3">
         <f t="shared" si="6"/>
         <v>1046.5189999999986</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <f>+O19-O20</f>
         <v>1165.308</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-    </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-    </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="4" t="e">
+      <c r="J23" s="7" t="e">
         <f t="shared" ref="J23:N23" si="7">+J21/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4" t="e">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="7">
         <f t="shared" si="7"/>
         <v>13.430039138943249</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="7">
         <f t="shared" si="7"/>
         <v>12.715596218803899</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="7">
         <f>+O21/O24</f>
         <v>14.481632450166526</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
         <v>77.671999999999997</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="7">
         <v>82.302000000000007</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="7">
         <v>80.468000000000004</v>
       </c>
     </row>
